--- a/xlsx/安那翰_intext.xlsx
+++ b/xlsx/安那翰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>安那翰</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_安那翰</t>
@@ -35,37 +35,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -119,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>電子學</t>
+    <t>电子学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%99%A8</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>旅館</t>
+    <t>旅馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>迪士尼樂園度假區</t>
+    <t>迪士尼乐园度假区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A4%AB</t>
   </si>
   <si>
-    <t>農夫</t>
+    <t>农夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%BF%E9%85%92</t>
@@ -221,25 +218,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>迪士尼樂園</t>
+    <t>迪士尼乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%8A%A0%E5%B7%9E%E5%86%92%E9%9A%AA%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>迪士尼加州冒險樂園</t>
+    <t>迪士尼加州冒险乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83-%E7%B6%93%E7%90%86%E5%88%B6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>議會-經理制政府</t>
+    <t>议会-经理制政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E7%BB%9F%E8%AE%A1</t>
@@ -269,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E5%A9%9A</t>
   </si>
   <si>
-    <t>結婚</t>
+    <t>结婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87%E6%94%B6%E5%85%A5</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E7%B7%9A</t>
   </si>
   <si>
-    <t>貧窮線</t>
+    <t>贫穷线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0%E5%A4%A9%E4%BD%BF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>安那翰天使球場</t>
+    <t>安那翰天使球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E4%B8%AD%E5%BF%83</t>
@@ -335,37 +332,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E4%B8%8A%E6%9B%B2%E6%A3%8D%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰上曲棍球聯盟</t>
+    <t>国家冰上曲棍球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B5%B7%E5%A7%86%E5%B0%8F%E9%B4%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>安納海姆小鴨隊</t>
+    <t>安纳海姆小鸭队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%E5%A6%AE</t>
   </si>
   <si>
-    <t>關·史蒂芬妮</t>
+    <t>关·史蒂芬妮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%A6%81%E6%87%B7%E7%96%91</t>
   </si>
   <si>
-    <t>不要懷疑</t>
+    <t>不要怀疑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AC%E4%BC%9A</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -587,25 +584,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -617,31 +614,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -845,19 +842,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1001,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -1037,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
@@ -1899,7 +1896,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1925,10 +1922,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1954,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1983,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2012,10 +2009,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2041,10 +2038,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2070,10 +2067,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2099,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2128,10 +2125,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2157,10 +2154,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2186,10 +2183,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2215,10 +2212,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2244,10 +2241,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2273,10 +2270,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2302,10 +2299,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2331,10 +2328,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2360,10 +2357,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -2389,10 +2386,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>8</v>
@@ -2418,10 +2415,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2447,10 +2444,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2476,10 +2473,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2505,10 +2502,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2534,10 +2531,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2563,10 +2560,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2592,10 +2589,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2621,10 +2618,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2650,10 +2647,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2679,10 +2676,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2708,10 +2705,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2737,10 +2734,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2766,10 +2763,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2795,10 +2792,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2824,10 +2821,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2853,10 +2850,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2882,10 +2879,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2911,10 +2908,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2940,10 +2937,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2969,10 +2966,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2998,10 +2995,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3027,10 +3024,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3056,10 +3053,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3085,10 +3082,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3114,10 +3111,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3143,10 +3140,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3175,7 +3172,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3201,10 +3198,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3230,10 +3227,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3259,10 +3256,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3288,10 +3285,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3346,10 +3343,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3375,10 +3372,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3404,10 +3401,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3433,10 +3430,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3462,10 +3459,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3491,10 +3488,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3520,10 +3517,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3549,10 +3546,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3578,10 +3575,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3607,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3636,10 +3633,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3665,10 +3662,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3694,10 +3691,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3723,10 +3720,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3752,10 +3749,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3781,10 +3778,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3810,10 +3807,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3839,10 +3836,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3868,10 +3865,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3897,10 +3894,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3926,10 +3923,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3955,10 +3952,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3984,10 +3981,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4013,10 +4010,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4042,10 +4039,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4071,10 +4068,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4100,10 +4097,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4129,10 +4126,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4187,10 +4184,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4216,10 +4213,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4245,10 +4242,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4274,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4303,10 +4300,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4332,10 +4329,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4361,10 +4358,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4390,10 +4387,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4419,10 +4416,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4448,10 +4445,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4477,10 +4474,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4506,10 +4503,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4535,10 +4532,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4564,10 +4561,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4593,10 +4590,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4622,10 +4619,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4651,10 +4648,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4680,10 +4677,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4709,10 +4706,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4738,10 +4735,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4767,10 +4764,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4796,10 +4793,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4825,10 +4822,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4854,10 +4851,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4883,10 +4880,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4912,10 +4909,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4941,10 +4938,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4970,10 +4967,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4999,10 +4996,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5028,10 +5025,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5057,10 +5054,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5086,10 +5083,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5115,10 +5112,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5144,10 +5141,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5173,10 +5170,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5202,10 +5199,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5231,10 +5228,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5260,10 +5257,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5289,10 +5286,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5318,10 +5315,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5347,10 +5344,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5376,10 +5373,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5405,10 +5402,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5434,10 +5431,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5463,10 +5460,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5492,10 +5489,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5521,10 +5518,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" t="s">
         <v>197</v>
-      </c>
-      <c r="F142" t="s">
-        <v>198</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5550,10 +5547,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5579,10 +5576,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5608,10 +5605,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5637,10 +5634,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5666,10 +5663,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5695,10 +5692,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5724,10 +5721,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5753,10 +5750,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5782,10 +5779,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5811,10 +5808,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5840,10 +5837,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5869,10 +5866,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5898,10 +5895,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5927,10 +5924,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5956,10 +5953,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5985,10 +5982,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6014,10 +6011,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6043,10 +6040,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6072,10 +6069,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6101,10 +6098,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6130,10 +6127,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6159,10 +6156,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6188,10 +6185,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6217,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6246,10 +6243,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6275,10 +6272,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6304,10 +6301,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6333,10 +6330,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6362,10 +6359,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -6391,10 +6388,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6420,10 +6417,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6449,10 +6446,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6478,10 +6475,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6507,10 +6504,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6536,10 +6533,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6565,10 +6562,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>9</v>
@@ -6594,10 +6591,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
